--- a/alu-4/GatterEquivalente.xlsx
+++ b/alu-4/GatterEquivalente.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SarahPC\Dropbox\Uni\2. Semester\BTG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\LogicWorksLib\alu-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Typ</t>
   </si>
@@ -858,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" ref="H5:H33" si="1">SUM(I$2*I6,J$2*J6,K$2*K6,L$2*L6,M$2*M6)</f>
+        <f t="shared" ref="H6:H33" si="1">SUM(I$2*I6,J$2*J6,K$2*K6,L$2*L6,M$2*M6)</f>
         <v>0</v>
       </c>
       <c r="K6">
@@ -1605,6 +1605,17 @@
       </c>
       <c r="M33">
         <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>74181</v>
+      </c>
+      <c r="D39">
+        <v>108.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/alu-4/GatterEquivalente.xlsx
+++ b/alu-4/GatterEquivalente.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Typ</t>
   </si>
@@ -156,6 +156,36 @@
   </si>
   <si>
     <t>Buffer-4</t>
+  </si>
+  <si>
+    <t>MUX 1x8</t>
+  </si>
+  <si>
+    <t>MUX-4x2</t>
+  </si>
+  <si>
+    <t>sonstiges</t>
+  </si>
+  <si>
+    <t>tristatebuffer</t>
+  </si>
+  <si>
+    <t>Volladdierer</t>
+  </si>
+  <si>
+    <t>Halbaddierer</t>
+  </si>
+  <si>
+    <t>CLA-Unit</t>
+  </si>
+  <si>
+    <t>OR5</t>
+  </si>
+  <si>
+    <t>MULTIPLEXER:</t>
+  </si>
+  <si>
+    <t>extras</t>
   </si>
 </sst>
 </file>
@@ -196,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -484,11 +514,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -538,7 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -578,6 +673,29 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -858,20 +976,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,588 +1017,965 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="38" t="s">
         <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="36" t="s">
         <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="22" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="37">
         <v>2</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18">
+      <c r="K2" s="37">
         <v>1</v>
       </c>
-      <c r="M2" s="18">
+      <c r="L2" s="17">
         <v>1</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="37">
+        <v>1</v>
+      </c>
+      <c r="N2" s="37">
+        <v>7</v>
+      </c>
+      <c r="O2" s="35">
+        <v>9</v>
+      </c>
+      <c r="P2" s="39">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17">
+        <v>32</v>
+      </c>
+      <c r="S2" s="17">
+        <v>16</v>
+      </c>
+      <c r="T2" s="17">
+        <v>4</v>
+      </c>
+      <c r="U2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>1.5</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <f>H4</f>
+        <v>53</v>
+      </c>
       <c r="D3" s="8">
         <f>C3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="21" t="s">
+        <v>79.5</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="38"/>
+      <c r="K3" s="38">
+        <v>108.5</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="34"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C23" si="0">H5</f>
+        <v>18</v>
+      </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D23" si="0">C4*B4</f>
-        <v>0</v>
+        <f t="shared" ref="D4:D23" si="1">C4*B4</f>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="21">
-        <f>SUM(I$2*I4,J$2*J4,K$2*K4,L$2*L4,M$2*M4)</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="20">
+        <f>SUM(I$2*I4,J$2*J4,K$2*K4,L$2*L4,M$2*M4,N$2*N4,O$2*O4,P$2*P4,R$2*R4,S$2*S4,T$2*T4,U$2*U4)</f>
+        <v>53</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="41">
+        <v>1</v>
+      </c>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41">
+        <v>4</v>
+      </c>
+      <c r="U4" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="6">
         <v>2.5</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="D5" s="8">
         <f>C5*B5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="21">
-        <f>SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5)</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="20">
+        <f t="shared" ref="H5:H35" si="2">SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5,N$2*N5,O$2*O5,P$2*P5,R$2*R5,S$2*S5,T$2*T5,U$2*U5)</f>
+        <v>18</v>
+      </c>
+      <c r="I5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="38">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41">
+        <v>3</v>
+      </c>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="14">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17">
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
         <f>C6*B6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="21">
-        <f t="shared" ref="H6:H33" si="1">SUM(I$2*I6,J$2*J6,K$2*K6,L$2*L6,M$2*M6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="H6" s="20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>0.5</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20" t="s">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41">
+        <v>1</v>
+      </c>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="I8" s="38">
         <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
+      <c r="K8" s="38"/>
       <c r="L8">
         <v>2</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="38">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="38"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="6">
         <v>1.5</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="21">
-        <f t="shared" si="1"/>
+      <c r="H12" s="20">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="38">
         <v>3</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6">
         <v>4.5</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>5.5</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="6">
         <v>1.5</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="6">
         <v>1.5</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7">
+        <f>H20</f>
+        <v>21</v>
+      </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="19" t="s">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="20">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41">
+        <v>1</v>
+      </c>
+      <c r="T20" s="41">
+        <v>1</v>
+      </c>
+      <c r="U20" s="20"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="6">
         <v>2.5</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="D21" s="8">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41">
+        <v>1</v>
+      </c>
+      <c r="U21" s="20"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="21">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41">
+        <v>2</v>
+      </c>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B23" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
+      <c r="C23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="D23" s="8">
+        <f>C23*B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41">
+        <v>1</v>
+      </c>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="C24" s="7">
+        <f>H25</f>
+        <v>32</v>
+      </c>
+      <c r="D24" s="8">
+        <f>C24*B24</f>
+        <v>96</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="H24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="G24" s="19" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="G25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="H25" s="20">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41">
+        <v>1</v>
+      </c>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B26" s="6">
         <v>7</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="21">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6">
-        <v>8</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8">
         <v>0</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="H26" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="38">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26" s="38"/>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26" s="38">
+        <v>5</v>
+      </c>
+      <c r="N26" s="38"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="38">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6">
         <v>8</v>
@@ -1474,140 +1984,284 @@
       <c r="D27" s="8">
         <v>0</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="B28" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="B29" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8">
         <v>0</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B30" s="6">
-        <v>0.25</v>
+        <v>5</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="B31" s="6">
-        <v>7.5</v>
+        <v>0.25</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="8">
         <v>0</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="B32" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" spans="1:26" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <v>1</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="H33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="16">
-        <f>SUM(D25:D32,D3:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="B34" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="27">
+        <f>SUM(K3)</f>
+        <v>108.5</v>
+      </c>
+      <c r="D34" s="15">
+        <f>SUM(D26:D33,D3:D24,C34)</f>
+        <v>448.5</v>
+      </c>
+      <c r="G34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="21">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I33">
+      <c r="H34" s="20">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I34" s="38">
         <v>4</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>2</v>
       </c>
-      <c r="L33">
+      <c r="K34" s="38"/>
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="M33">
+      <c r="M34" s="38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="38"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="38">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="20"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>74181</v>
       </c>
@@ -1618,11 +2272,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U40" s="31"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Z41" s="31"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V43" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/alu-4/GatterEquivalente.xlsx
+++ b/alu-4/GatterEquivalente.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Typ</t>
   </si>
@@ -182,10 +182,10 @@
     <t>OR5</t>
   </si>
   <si>
-    <t>MULTIPLEXER:</t>
-  </si>
-  <si>
     <t>extras</t>
+  </si>
+  <si>
+    <t>Multiplizierer</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -401,21 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -584,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -621,24 +606,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -647,9 +626,9 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -665,14 +644,25 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -685,17 +675,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -978,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,46 +996,46 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="33" t="s">
         <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="31" t="s">
         <v>38</v>
       </c>
       <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="33" t="s">
+      <c r="Q1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1064,50 +1043,50 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="21" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="32">
         <v>2</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <v>2</v>
       </c>
-      <c r="K2" s="37">
-        <v>1</v>
-      </c>
-      <c r="L2" s="17">
-        <v>1</v>
-      </c>
-      <c r="M2" s="37">
-        <v>1</v>
-      </c>
-      <c r="N2" s="37">
+      <c r="K2" s="32">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15">
+        <v>1</v>
+      </c>
+      <c r="M2" s="32">
+        <v>1</v>
+      </c>
+      <c r="N2" s="32">
         <v>7</v>
       </c>
-      <c r="O2" s="35">
-        <v>9</v>
-      </c>
-      <c r="P2" s="39">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17">
+      <c r="O2" s="30">
+        <v>1</v>
+      </c>
+      <c r="P2" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15">
         <v>32</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="15">
         <v>16</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="15">
         <v>4</v>
       </c>
-      <c r="U2" s="21">
-        <v>1</v>
+      <c r="U2" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,28 +1098,28 @@
       </c>
       <c r="C3" s="7">
         <f>H4</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8">
         <f>C3*B3</f>
-        <v>79.5</v>
-      </c>
-      <c r="H3" s="20" t="s">
+        <v>97.5</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="K3" s="38">
+      <c r="I3" s="33"/>
+      <c r="K3" s="33">
         <v>108.5</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="34"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="29"/>
     </row>
     <row r="4" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1151,39 +1130,39 @@
       </c>
       <c r="C4" s="7">
         <f t="shared" ref="C4:C23" si="0">H5</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D23" si="1">C4*B4</f>
-        <v>36</v>
+        <f t="shared" ref="D4:D22" si="1">C4*B4</f>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>SUM(I$2*I4,J$2*J4,K$2*K4,L$2*L4,M$2*M4,N$2*N4,O$2*O4,P$2*P4,R$2*R4,S$2*S4,T$2*T4,U$2*U4)</f>
-        <v>53</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41">
-        <v>1</v>
-      </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41">
+        <v>65</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36">
+        <v>1</v>
+      </c>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36">
         <v>4</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="18">
         <v>4</v>
       </c>
     </row>
@@ -1202,64 +1181,64 @@
         <f>C5*B5</f>
         <v>30</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f t="shared" ref="H5:H35" si="2">SUM(I$2*I5,J$2*J5,K$2*K5,L$2*L5,M$2*M5,N$2*N5,O$2*O5,P$2*P5,R$2*R5,S$2*S5,T$2*T5,U$2*U5)</f>
-        <v>18</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="38">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41">
+        <v>13</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36">
         <v>3</v>
       </c>
-      <c r="U5" s="20"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>C6*B6</f>
         <v>12</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41">
+      <c r="I6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36">
         <v>3</v>
       </c>
-      <c r="U6" s="20"/>
+      <c r="U6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1270,32 +1249,32 @@
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="G7" s="19" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41">
-        <v>1</v>
-      </c>
-      <c r="U7" s="20"/>
+      <c r="I7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1306,42 +1285,42 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="20">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="I8" s="38">
+      <c r="H8" s="18">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="33">
         <v>1</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="33"/>
       <c r="L8">
         <v>2</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="33">
         <v>2</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="38">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="20"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1358,24 +1337,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="20"/>
+      <c r="H9" s="18">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33">
+        <v>4</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1386,30 +1367,30 @@
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="20"/>
+      <c r="H10" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1426,24 +1407,26 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="20"/>
+      <c r="H11" s="18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="18">
+        <v>9</v>
+      </c>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="18"/>
     </row>
     <row r="12" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1460,26 +1443,26 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="33">
         <v>3</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="20"/>
+      <c r="K12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="18"/>
     </row>
     <row r="13" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1496,24 +1479,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="20"/>
+      <c r="H13" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="18"/>
     </row>
     <row r="14" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1530,24 +1513,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="20"/>
+      <c r="H14" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1564,24 +1547,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="20"/>
+      <c r="H15" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="18"/>
     </row>
     <row r="16" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1598,24 +1581,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="20"/>
+      <c r="H16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="18"/>
     </row>
     <row r="17" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1632,24 +1615,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="20"/>
+      <c r="H17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -1666,24 +1649,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="20"/>
+      <c r="H18" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="18"/>
     </row>
     <row r="19" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -1700,24 +1683,24 @@
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="20"/>
+      <c r="H19" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1734,30 +1717,30 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="18">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41">
-        <v>1</v>
-      </c>
-      <c r="T20" s="41">
-        <v>1</v>
-      </c>
-      <c r="U20" s="20"/>
+      <c r="I20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36">
+        <v>1</v>
+      </c>
+      <c r="T20" s="36">
+        <v>1</v>
+      </c>
+      <c r="U20" s="18"/>
     </row>
     <row r="21" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1774,32 +1757,32 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41">
-        <v>1</v>
-      </c>
-      <c r="U21" s="20"/>
+      <c r="I21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36">
+        <v>1</v>
+      </c>
+      <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="12">
         <v>3</v>
       </c>
       <c r="C22" s="7">
@@ -1810,28 +1793,28 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="18">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41">
+      <c r="I22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36">
         <v>2</v>
       </c>
-      <c r="U22" s="20"/>
+      <c r="U22" s="18"/>
     </row>
     <row r="23" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1848,26 +1831,26 @@
         <f>C23*B23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="18">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41">
-        <v>1</v>
-      </c>
-      <c r="U23" s="20"/>
+      <c r="I23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36">
+        <v>1</v>
+      </c>
+      <c r="U23" s="18"/>
     </row>
     <row r="24" spans="1:21" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
@@ -1884,52 +1867,52 @@
         <f>C24*B24</f>
         <v>96</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="20"/>
+      <c r="H24" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="18"/>
     </row>
     <row r="25" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="G25" s="18" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="G25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="I25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="41">
-        <v>1</v>
-      </c>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="20"/>
+      <c r="I25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="36">
+        <v>1</v>
+      </c>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1938,40 +1921,44 @@
       <c r="B26" s="6">
         <v>7</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7">
+        <f>I26</f>
+        <v>4</v>
+      </c>
       <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18" t="s">
+        <f>B26*C26</f>
+        <v>28</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="20">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="I26" s="38">
+      <c r="H26" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="I26" s="33">
         <v>4</v>
       </c>
       <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="33"/>
       <c r="L26">
         <v>3</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="33">
         <v>5</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="38">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="20"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="18"/>
     </row>
     <row r="27" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1980,28 +1967,32 @@
       <c r="B27" s="6">
         <v>8</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7">
+        <f t="shared" ref="C27:C33" si="3">I27</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18" t="s">
+        <f t="shared" ref="D27:D33" si="4">B27*C27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="20"/>
+      <c r="H27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="18"/>
     </row>
     <row r="28" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -2010,28 +2001,32 @@
       <c r="B28" s="6">
         <v>8</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="20"/>
+      <c r="H28" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="18"/>
     </row>
     <row r="29" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2040,28 +2035,32 @@
       <c r="B29" s="6">
         <v>9</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="20"/>
+      <c r="H29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="18"/>
     </row>
     <row r="30" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2070,28 +2069,32 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="20"/>
+      <c r="H30" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="18"/>
     </row>
     <row r="31" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2100,28 +2103,32 @@
       <c r="B31" s="6">
         <v>0.25</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="20"/>
+      <c r="H31" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="18"/>
     </row>
     <row r="32" spans="1:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2130,28 +2137,32 @@
       <c r="B32" s="6">
         <v>7.5</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="20"/>
+      <c r="H32" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="18"/>
     </row>
     <row r="33" spans="1:26" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
@@ -2160,128 +2171,120 @@
       <c r="B33" s="10">
         <v>1</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18" t="s">
+      <c r="C33" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="20"/>
+      <c r="H33" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="18"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="27">
+      <c r="B34" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="25">
         <f>SUM(K3)</f>
         <v>108.5</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <f>SUM(D26:D33,D3:D24,C34)</f>
-        <v>448.5</v>
-      </c>
-      <c r="G34" s="19" t="s">
+        <v>711.5</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="20">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="I34" s="38">
+      <c r="H34" s="18">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I34" s="33">
         <v>4</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
-      <c r="K34" s="38"/>
+      <c r="K34" s="33"/>
       <c r="L34">
         <v>2</v>
       </c>
-      <c r="M34" s="38">
-        <v>2</v>
-      </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="20"/>
+      <c r="M34" s="33">
+        <v>4</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="18"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="20">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="38">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="20"/>
+      <c r="H35" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="18"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>74181</v>
-      </c>
-      <c r="D39">
-        <v>108.5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
+      <c r="G36" s="17"/>
+      <c r="L36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="U40" s="31"/>
+      <c r="U40" s="26"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Z41" s="31"/>
+      <c r="V41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Z41" s="26"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V43" s="31"/>
+      <c r="V43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/alu-4/GatterEquivalente.xlsx
+++ b/alu-4/GatterEquivalente.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Typ</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Multiplizierer</t>
+  </si>
+  <si>
+    <t>Buffer4</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -565,11 +568,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -674,6 +725,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1788,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="2"/>
+        <f>SUM(I$2*I20,J$2*J20,K$2*K20,L$2*L20,M$2*M20,N$2*N20,O$2*O20,P$2*P20,R$2*R20,S$2*S20,T$2*T20,U$2*U20)</f>
         <v>21</v>
       </c>
       <c r="I20" s="33"/>
@@ -1972,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" ref="D27:D33" si="4">B27*C27</f>
+        <f t="shared" ref="D27:D34" si="4">B27*C27</f>
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -2164,11 +2231,11 @@
       <c r="T32" s="36"/>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:26" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:26" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="41">
         <v>1</v>
       </c>
       <c r="C33" s="7">
@@ -2199,20 +2266,21 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="25">
-        <f>SUM(K3)</f>
-        <v>108.5</v>
-      </c>
-      <c r="D34" s="13">
-        <f>SUM(D26:D33,D3:D24,C34)</f>
-        <v>711.5</v>
-      </c>
+      <c r="A34" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="44">
+        <v>4</v>
+      </c>
+      <c r="C34" s="27">
+        <f>H34</f>
+        <v>19</v>
+      </c>
+      <c r="D34" s="27">
+        <f>B34*C34</f>
+        <v>76</v>
+      </c>
+      <c r="E34" s="42"/>
       <c r="G34" s="17" t="s">
         <v>43</v>
       </c>
@@ -2244,7 +2312,21 @@
       <c r="T34" s="36"/>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="43">
+        <f>SUM(K3)</f>
+        <v>108.5</v>
+      </c>
+      <c r="D35" s="13">
+        <f>SUM(D26:D34,D3:D24,C35)</f>
+        <v>787.5</v>
+      </c>
       <c r="G35" s="17" t="s">
         <v>47</v>
       </c>

--- a/alu-4/GatterEquivalente.xlsx
+++ b/alu-4/GatterEquivalente.xlsx
@@ -714,18 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -741,6 +729,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,9 +1110,9 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="19" t="s">
@@ -1989,12 +1989,12 @@
         <v>7</v>
       </c>
       <c r="C26" s="7">
-        <f>I26</f>
-        <v>4</v>
+        <f>H26</f>
+        <v>25</v>
       </c>
       <c r="D26" s="8">
         <f>B26*C26</f>
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>26</v>
@@ -2035,11 +2035,11 @@
         <v>8</v>
       </c>
       <c r="C27" s="7">
-        <f t="shared" ref="C27:C33" si="3">I27</f>
+        <f t="shared" ref="C27:C34" si="3">H27</f>
         <v>0</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" ref="D27:D34" si="4">B27*C27</f>
+        <f t="shared" ref="D27:D33" si="4">B27*C27</f>
         <v>0</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -2232,10 +2232,10 @@
       <c r="U32" s="18"/>
     </row>
     <row r="33" spans="1:26" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="38">
         <v>1</v>
       </c>
       <c r="C33" s="7">
@@ -2266,21 +2266,21 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="41">
         <v>4</v>
       </c>
-      <c r="C34" s="27">
-        <f>H34</f>
+      <c r="C34" s="7">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D34" s="27">
         <f>B34*C34</f>
         <v>76</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="39"/>
       <c r="G34" s="17" t="s">
         <v>43</v>
       </c>
@@ -2319,13 +2319,13 @@
       <c r="B35" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="40">
         <f>SUM(K3)</f>
         <v>108.5</v>
       </c>
       <c r="D35" s="13">
         <f>SUM(D26:D34,D3:D24,C35)</f>
-        <v>787.5</v>
+        <v>934.5</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>47</v>
